--- a/teaching/traditional_assets/database/data/belgium/belgium_healthcare_products.xlsx
+++ b/teaching/traditional_assets/database/data/belgium/belgium_healthcare_products.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,118 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.06598000000000001</v>
+        <v>0.0165</v>
       </c>
       <c r="E2">
-        <v>0.263</v>
+        <v>-0.51</v>
       </c>
       <c r="G2">
-        <v>0.09135785540433991</v>
+        <v>0.02679517762718002</v>
       </c>
       <c r="H2">
-        <v>-0.1696547941448699</v>
+        <v>-0.2221485779022269</v>
       </c>
       <c r="I2">
-        <v>-0.2300932739834846</v>
+        <v>-0.2755332262380862</v>
       </c>
       <c r="J2">
-        <v>-0.2300647970931401</v>
+        <v>-0.252572124051579</v>
       </c>
       <c r="K2">
-        <v>-83.37</v>
+        <v>-101.838</v>
       </c>
       <c r="L2">
-        <v>-0.2857975386514004</v>
+        <v>-0.2973485124982846</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.5542</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.001767135513598406</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.02508101101749838</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.5542</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.001767135513598406</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>-0.02508101101749838</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>274.485</v>
+        <v>320.028</v>
       </c>
       <c r="V2">
-        <v>0.3102156370787279</v>
+        <v>0.2214129058593182</v>
       </c>
       <c r="W2">
-        <v>-0.2563864362163842</v>
+        <v>-1.260598344352237</v>
       </c>
       <c r="X2">
-        <v>0.09349641506284724</v>
+        <v>0.0595568855910163</v>
       </c>
       <c r="Y2">
-        <v>-0.3498828512792315</v>
+        <v>-1.320155229943253</v>
       </c>
       <c r="Z2">
-        <v>1.146940379036012</v>
+        <v>1.18016459692212</v>
       </c>
       <c r="AA2">
-        <v>-0.4199854556756929</v>
+        <v>-0.3543155040876804</v>
       </c>
       <c r="AB2">
-        <v>0.08371609033220341</v>
+        <v>0.05850564141532216</v>
       </c>
       <c r="AC2">
-        <v>-0.5026591592625158</v>
+        <v>-0.4126270324093066</v>
       </c>
       <c r="AD2">
-        <v>296.894</v>
+        <v>304.83</v>
       </c>
       <c r="AE2">
-        <v>27.74254476861147</v>
+        <v>0.2477402730171646</v>
       </c>
       <c r="AF2">
-        <v>324.6365447686114</v>
+        <v>305.0777402730172</v>
       </c>
       <c r="AG2">
-        <v>50.15154476861142</v>
+        <v>-14.95025972698284</v>
       </c>
       <c r="AH2">
-        <v>0.2684152201852938</v>
+        <v>0.1742835547631599</v>
       </c>
       <c r="AI2">
-        <v>0.547996215834198</v>
+        <v>0.5873117093794094</v>
       </c>
       <c r="AJ2">
-        <v>0.05363964823231387</v>
+        <v>-0.01045151312989206</v>
       </c>
       <c r="AK2">
-        <v>0.157748179051887</v>
+        <v>-0.07496880552805386</v>
       </c>
       <c r="AL2">
-        <v>7.371</v>
+        <v>13.746</v>
       </c>
       <c r="AM2">
-        <v>7.04</v>
+        <v>11.706</v>
       </c>
       <c r="AN2">
-        <v>-6.221584241408215</v>
+        <v>-3.651314607414506</v>
       </c>
       <c r="AO2">
-        <v>-9.593542260208926</v>
+        <v>-6.877055143314418</v>
       </c>
       <c r="AP2">
-        <v>-1.050954416777272</v>
+        <v>0.1790771962266615</v>
       </c>
       <c r="AQ2">
-        <v>-10.04460227272727</v>
+        <v>-8.075516828976593</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ion Beam Applications SA (ENXTBR:IBAB)</t>
+          <t>Sequana Medical NV (ENXTBR:SEQUA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,26 +724,23 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.007039999999999999</v>
-      </c>
       <c r="G3">
-        <v>0.140533015115354</v>
+        <v>-10.48461538461538</v>
       </c>
       <c r="H3">
-        <v>0.03074781225139221</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="I3">
-        <v>0.009921089189628559</v>
+        <v>-13.38461538461538</v>
       </c>
       <c r="J3">
-        <v>0.009921089189628559</v>
+        <v>-13.38461538461538</v>
       </c>
       <c r="K3">
-        <v>-3.08</v>
+        <v>-19.4</v>
       </c>
       <c r="L3">
-        <v>-0.01225139220365951</v>
+        <v>-14.92307692307692</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,73 +764,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>21.6</v>
+        <v>16.7</v>
       </c>
       <c r="V3">
-        <v>0.05010438413361169</v>
+        <v>0.07330992098331869</v>
       </c>
       <c r="W3">
-        <v>-0.02723253757736517</v>
+        <v>-1.993833504624871</v>
       </c>
       <c r="X3">
-        <v>0.09761647973777463</v>
+        <v>0.0591445549118625</v>
       </c>
       <c r="Y3">
-        <v>-0.1248490173151398</v>
+        <v>-2.052978059536734</v>
       </c>
       <c r="Z3">
-        <v>1.494567560023754</v>
+        <v>-0.7602339181286554</v>
       </c>
       <c r="AA3">
-        <v>0.0148277380629212</v>
+        <v>10.17543859649123</v>
       </c>
       <c r="AB3">
-        <v>0.08323012159979259</v>
+        <v>0.05845471468679571</v>
       </c>
       <c r="AC3">
-        <v>-0.06840238353687139</v>
+        <v>10.11698388180444</v>
       </c>
       <c r="AD3">
-        <v>103.8</v>
+        <v>3.83</v>
       </c>
       <c r="AE3">
-        <v>13.9691908886369</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>117.7691908886369</v>
+        <v>3.83</v>
       </c>
       <c r="AG3">
-        <v>96.1691908886369</v>
+        <v>-12.87</v>
       </c>
       <c r="AH3">
-        <v>0.2145669548293734</v>
+        <v>0.01653499114967837</v>
       </c>
       <c r="AI3">
-        <v>0.5121085586880501</v>
+        <v>0.2635925671025465</v>
       </c>
       <c r="AJ3">
-        <v>0.182391068073895</v>
+        <v>-0.05987996091750802</v>
       </c>
       <c r="AK3">
-        <v>0.4615326789843639</v>
+        <v>5.930875576036867</v>
       </c>
       <c r="AL3">
-        <v>2.97</v>
+        <v>0.979</v>
       </c>
       <c r="AM3">
-        <v>2.641</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="AN3">
-        <v>8.337349397590362</v>
+        <v>-0.2201149425287356</v>
       </c>
       <c r="AO3">
-        <v>-0.1353535353535354</v>
+        <v>-17.7732379979571</v>
       </c>
       <c r="AP3">
-        <v>7.724433003103366</v>
+        <v>0.7396551724137931</v>
       </c>
       <c r="AQ3">
-        <v>-0.1522150700492238</v>
+        <v>-18.49096705632306</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Remedent, Inc. (OTCPK:REMI)</t>
+          <t>Ion Beam Applications SA (ENXTBR:IBAB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,118 +850,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.139</v>
+        <v>0.0165</v>
       </c>
       <c r="E4">
-        <v>0.263</v>
+        <v>-0.51</v>
       </c>
       <c r="G4">
-        <v>-0.4492753623188406</v>
+        <v>0.1376051126807938</v>
       </c>
       <c r="H4">
-        <v>-0.4492753623188406</v>
+        <v>0.01281533804238143</v>
       </c>
       <c r="I4">
-        <v>-0.3951662370913379</v>
+        <v>-0.0227716111671712</v>
       </c>
       <c r="J4">
-        <v>-0.3949706102412927</v>
+        <v>-0.0113858055835856</v>
       </c>
       <c r="K4">
-        <v>2.01</v>
+        <v>0.995</v>
       </c>
       <c r="L4">
-        <v>1.456521739130435</v>
+        <v>0.003346787756474941</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>2.5542</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.00577089923181202</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>2.567035175879397</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>2.5542</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.00577089923181202</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>2.567035175879397</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0.08500000000000001</v>
+        <v>107.9</v>
       </c>
       <c r="V4">
-        <v>0.02639751552795031</v>
+        <v>0.2437867148666968</v>
       </c>
       <c r="W4">
-        <v>0.6677740863787375</v>
+        <v>0.008868092691622103</v>
       </c>
       <c r="X4">
-        <v>0.08937635038791986</v>
+        <v>0.06675045278625064</v>
       </c>
       <c r="Y4">
-        <v>0.5783977359908177</v>
+        <v>-0.05788236009462853</v>
       </c>
       <c r="Z4">
-        <v>0.4406626877700098</v>
+        <v>1.529320987654321</v>
       </c>
       <c r="AA4">
-        <v>-0.174048810699089</v>
+        <v>-0.01741255144032922</v>
       </c>
       <c r="AB4">
-        <v>0.08420205906461423</v>
+        <v>0.05738728587711735</v>
       </c>
       <c r="AC4">
-        <v>-0.2582508697637032</v>
+        <v>-0.07479983731744658</v>
       </c>
       <c r="AD4">
-        <v>0.134</v>
+        <v>103.7</v>
       </c>
       <c r="AE4">
-        <v>0.1766470359302311</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.3106470359302311</v>
+        <v>103.7</v>
       </c>
       <c r="AG4">
-        <v>0.2256470359302311</v>
+        <v>-4.200000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.08798586569795241</v>
+        <v>0.1898224418817499</v>
       </c>
       <c r="AI4">
-        <v>0.05699268983709101</v>
+        <v>0.4841269841269842</v>
       </c>
       <c r="AJ4">
-        <v>0.06548756549270651</v>
+        <v>-0.009580291970802925</v>
       </c>
       <c r="AK4">
-        <v>0.04205402152232907</v>
+        <v>-0.03951081843838197</v>
       </c>
       <c r="AL4">
-        <v>0.011</v>
+        <v>2.16</v>
       </c>
       <c r="AM4">
-        <v>0.008999999999999999</v>
+        <v>0.2300000000000002</v>
       </c>
       <c r="AN4">
-        <v>-0.319047619047619</v>
+        <v>-36.00694444444445</v>
       </c>
       <c r="AO4">
-        <v>-55.63636363636364</v>
+        <v>-3.134259259259259</v>
       </c>
       <c r="AP4">
-        <v>-0.5372548474529312</v>
+        <v>1.458333333333334</v>
       </c>
       <c r="AQ4">
-        <v>-68</v>
+        <v>-29.43478260869562</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biocartis Group NV (ENXTBR:BCART)</t>
+          <t>Remedent, Inc. (OTCPK:REMI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -980,23 +983,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.207</v>
+      </c>
       <c r="G5">
-        <v>0.03439153439153432</v>
+        <v>-0.3885714285714285</v>
       </c>
       <c r="H5">
-        <v>-1.195767195767196</v>
+        <v>-0.3885714285714285</v>
       </c>
       <c r="I5">
-        <v>-1.462151888063727</v>
+        <v>-0.1671791830182426</v>
       </c>
       <c r="J5">
-        <v>-1.462151888063727</v>
+        <v>-0.1671791830182426</v>
       </c>
       <c r="K5">
-        <v>-63.8</v>
+        <v>-0.502</v>
       </c>
       <c r="L5">
-        <v>-1.687830687830688</v>
+        <v>-0.4780952380952381</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1020,73 +1026,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>238.1</v>
+        <v>0.128</v>
       </c>
       <c r="V5">
-        <v>0.6579165515335729</v>
+        <v>0.04429065743944637</v>
       </c>
       <c r="W5">
-        <v>-0.4855403348554033</v>
+        <v>-0.09940594059405941</v>
       </c>
       <c r="X5">
-        <v>0.1110726054072878</v>
+        <v>0.05961772173097446</v>
       </c>
       <c r="Y5">
-        <v>-0.5966129402626912</v>
+        <v>-0.1590236623250339</v>
       </c>
       <c r="Z5">
-        <v>0.4554397570379317</v>
+        <v>0.2078100679596594</v>
       </c>
       <c r="AA5">
-        <v>-0.6659221006522968</v>
+        <v>-0.03474151738446134</v>
       </c>
       <c r="AB5">
-        <v>0.08114534810903147</v>
+        <v>0.05860056312930425</v>
       </c>
       <c r="AC5">
-        <v>-0.7470674487613284</v>
+        <v>-0.09334208051376559</v>
       </c>
       <c r="AD5">
-        <v>189.7</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>13.59670684404433</v>
+        <v>0.08769071084577393</v>
       </c>
       <c r="AF5">
-        <v>203.2967068440443</v>
+        <v>0.08769071084577393</v>
       </c>
       <c r="AG5">
-        <v>-34.80329315595569</v>
+        <v>-0.04030928915422607</v>
       </c>
       <c r="AH5">
-        <v>0.3596919521686816</v>
+        <v>0.02944923410828874</v>
       </c>
       <c r="AI5">
-        <v>0.5909844565349625</v>
+        <v>0.01882707897318723</v>
       </c>
       <c r="AJ5">
-        <v>-0.1064006222861469</v>
+        <v>-0.01414514529622847</v>
       </c>
       <c r="AK5">
-        <v>-0.3286532149409616</v>
+        <v>-0.008898905405993959</v>
       </c>
       <c r="AL5">
-        <v>3.2</v>
+        <v>0.013</v>
       </c>
       <c r="AM5">
-        <v>3.2</v>
+        <v>0.013</v>
       </c>
       <c r="AN5">
-        <v>-4.110509209100758</v>
+        <v>-0</v>
       </c>
       <c r="AO5">
-        <v>-17.46875</v>
+        <v>-18.76923076923077</v>
       </c>
       <c r="AP5">
-        <v>0.7541341962287256</v>
+        <v>0.3698099922406061</v>
       </c>
       <c r="AQ5">
-        <v>-17.46875</v>
+        <v>-18.76923076923077</v>
       </c>
     </row>
     <row r="6">
@@ -1097,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sequana Medical NV (ENXTBR:SEQUA)</t>
+          <t>Biocartis Group NV (ENXTBR:BCART)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1105,23 +1111,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.203</v>
+      </c>
       <c r="G6">
-        <v>-8.283185840707965</v>
+        <v>-0.2827102803738318</v>
       </c>
       <c r="H6">
-        <v>-10.08849557522124</v>
+        <v>-1.336448598130841</v>
       </c>
       <c r="I6">
-        <v>-12.21238938053098</v>
+        <v>-1.453271028037383</v>
       </c>
       <c r="J6">
-        <v>-12.21238938053098</v>
+        <v>-1.453271028037383</v>
       </c>
       <c r="K6">
-        <v>-18.5</v>
+        <v>-74.2</v>
       </c>
       <c r="L6">
-        <v>-16.37168141592921</v>
+        <v>-1.733644859813084</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1145,58 +1154,281 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>14.7</v>
+        <v>168.4</v>
       </c>
       <c r="V6">
-        <v>0.1659142212189616</v>
+        <v>0.5145126794989306</v>
+      </c>
+      <c r="W6">
+        <v>-0.527363184079602</v>
       </c>
       <c r="X6">
-        <v>0.0865934207632446</v>
+        <v>0.07843075815019337</v>
+      </c>
+      <c r="Y6">
+        <v>-0.6057939422297954</v>
+      </c>
+      <c r="Z6">
+        <v>0.4637053087757314</v>
+      </c>
+      <c r="AA6">
+        <v>-0.6738894907908994</v>
       </c>
       <c r="AB6">
-        <v>0.08460515148271038</v>
+        <v>0.05802249351394818</v>
+      </c>
+      <c r="AC6">
+        <v>-0.7319119843048476</v>
       </c>
       <c r="AD6">
-        <v>3.26</v>
+        <v>186</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.26</v>
+        <v>186</v>
       </c>
       <c r="AG6">
-        <v>-11.44</v>
+        <v>17.59999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.03548878728499891</v>
+        <v>0.3623611922852134</v>
       </c>
       <c r="AI6">
-        <v>0.2509622786759045</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="AJ6">
-        <v>-0.1482633488854329</v>
+        <v>0.0510292838503914</v>
       </c>
       <c r="AK6">
-        <v>6.690058479532167</v>
+        <v>0.2268041237113401</v>
       </c>
       <c r="AL6">
-        <v>1.19</v>
+        <v>10.5</v>
       </c>
       <c r="AM6">
-        <v>1.19</v>
+        <v>10.5</v>
       </c>
       <c r="AN6">
-        <v>-0.2397058823529412</v>
+        <v>-3.351351351351351</v>
       </c>
       <c r="AO6">
-        <v>-11.59663865546219</v>
+        <v>-5.923809523809524</v>
       </c>
       <c r="AP6">
-        <v>0.8411764705882353</v>
+        <v>-0.317117117117117</v>
       </c>
       <c r="AQ6">
-        <v>-11.59663865546219</v>
+        <v>-5.923809523809524</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nyxoah S.A. (ENXTBR:NYXH)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Healthcare Products</t>
+        </is>
+      </c>
+      <c r="K7">
+        <v>-8.609999999999999</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>26.9</v>
+      </c>
+      <c r="V7">
+        <v>0.06305672761368963</v>
+      </c>
+      <c r="X7">
+        <v>0.05949604945105814</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>-48.12890337172826</v>
+      </c>
+      <c r="AB7">
+        <v>0.05859565061552971</v>
+      </c>
+      <c r="AC7">
+        <v>-48.18749902234379</v>
+      </c>
+      <c r="AD7">
+        <v>11.3</v>
+      </c>
+      <c r="AE7">
+        <v>0.1600495621713907</v>
+      </c>
+      <c r="AF7">
+        <v>11.46004956217139</v>
+      </c>
+      <c r="AG7">
+        <v>-15.43995043782861</v>
+      </c>
+      <c r="AH7">
+        <v>0.02616091007072064</v>
+      </c>
+      <c r="AI7">
+        <v>0.2860717769304282</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.03755216600997596</v>
+      </c>
+      <c r="AK7">
+        <v>-1.173244094931891</v>
+      </c>
+      <c r="AL7">
+        <v>0.091</v>
+      </c>
+      <c r="AM7">
+        <v>0.019</v>
+      </c>
+      <c r="AN7">
+        <v>-1.504460125149781</v>
+      </c>
+      <c r="AO7">
+        <v>-85.71428571428571</v>
+      </c>
+      <c r="AP7">
+        <v>2.055645112212569</v>
+      </c>
+      <c r="AQ7">
+        <v>-410.5263157894736</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Metrics in Balance N.V. (ENXTPA:MLMIB)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Healthcare Products</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>-2.297297297297297</v>
+      </c>
+      <c r="H8">
+        <v>-2.297297297297297</v>
+      </c>
+      <c r="I8">
+        <v>-3.189189189189189</v>
+      </c>
+      <c r="J8">
+        <v>-3.189189189189189</v>
+      </c>
+      <c r="K8">
+        <v>-0.121</v>
+      </c>
+      <c r="L8">
+        <v>-3.27027027027027</v>
+      </c>
+      <c r="M8">
+        <v>-0</v>
+      </c>
+      <c r="N8">
+        <v>-0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-0</v>
+      </c>
+      <c r="Q8">
+        <v>-0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.0585565681438486</v>
+      </c>
+      <c r="AB8">
+        <v>0.0585565681438486</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0.003</v>
+      </c>
+      <c r="AM8">
+        <v>0.003</v>
+      </c>
+      <c r="AN8">
+        <v>-0</v>
+      </c>
+      <c r="AO8">
+        <v>-39.33333333333333</v>
+      </c>
+      <c r="AP8">
+        <v>-0</v>
+      </c>
+      <c r="AQ8">
+        <v>-39.33333333333333</v>
       </c>
     </row>
   </sheetData>
